--- a/name_database.xlsx
+++ b/name_database.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jonathan\GitHub\prayerSequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C772E55-B822-4076-A2F3-BDD12D1816C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93FFC71-D5C3-4D32-9A1A-DB335BFA977E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="50940" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Names" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -155,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="779">
   <si>
     <t>Kang</t>
   </si>
@@ -2480,6 +2491,18 @@
   </si>
   <si>
     <t>An anime english voice actor. Most known for voicing Sabo in One Piece.</t>
+  </si>
+  <si>
+    <t>A Christian influencer who makes 'Conversations with God' videos on TikTok.</t>
+  </si>
+  <si>
+    <t>A Spanish rapper who goes by the name 'Ash Lilih'. I made her cry at during work at Market Basket one time.</t>
+  </si>
+  <si>
+    <t>My former girlfriend back in 2017. Became non-binary to transgender and changed the name to Calvin to Edmund. Currently engaged as of last time.</t>
+  </si>
+  <si>
+    <t>The younger half-sister of Callie. Has behavioral issues and has identified as bisexual.</t>
   </si>
 </sst>
 </file>
@@ -2488,7 +2511,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="167" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -2634,7 +2657,7 @@
     <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2919,8 +2942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1125" workbookViewId="0">
-      <selection activeCell="P1143" sqref="P1143"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3077,6 +3100,9 @@
       <c r="F7" s="6">
         <v>36945</v>
       </c>
+      <c r="G7" s="15">
+        <v>3392011100</v>
+      </c>
       <c r="H7" s="6" t="s">
         <v>647</v>
       </c>
@@ -3095,6 +3121,9 @@
       <c r="F8" s="6">
         <v>36945</v>
       </c>
+      <c r="G8" s="15">
+        <v>9784826113</v>
+      </c>
       <c r="H8" s="6" t="s">
         <v>648</v>
       </c>
@@ -3110,6 +3139,9 @@
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G9" s="15">
+        <v>9789300948</v>
+      </c>
       <c r="H9" s="6" t="s">
         <v>657</v>
       </c>
@@ -3125,6 +3157,9 @@
       <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="G10" s="15">
+        <v>9784919332</v>
+      </c>
       <c r="H10" s="6" t="s">
         <v>655</v>
       </c>
@@ -3264,6 +3299,9 @@
       <c r="D21" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="G21" s="15">
+        <v>9782288260</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
@@ -3381,6 +3419,9 @@
       <c r="F30" s="6">
         <v>37400</v>
       </c>
+      <c r="G30" s="15">
+        <v>9787589008</v>
+      </c>
       <c r="H30" s="6" t="s">
         <v>649</v>
       </c>
@@ -3395,6 +3436,9 @@
       <c r="D31" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="G31" s="15">
+        <v>9785664570</v>
+      </c>
       <c r="H31" s="6" t="s">
         <v>650</v>
       </c>
@@ -3454,6 +3498,9 @@
       <c r="F35" s="6">
         <v>38495</v>
       </c>
+      <c r="G35" s="15">
+        <v>9788024542</v>
+      </c>
       <c r="H35" s="6" t="s">
         <v>679</v>
       </c>
@@ -3622,7 +3669,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
         <v>46</v>
       </c>
@@ -3633,7 +3680,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
         <v>47</v>
       </c>
@@ -3644,7 +3691,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
         <v>48</v>
       </c>
@@ -3655,7 +3702,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <v>49</v>
       </c>
@@ -3666,7 +3713,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
         <v>50</v>
       </c>
@@ -3676,8 +3723,11 @@
       <c r="D53" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F53" s="6">
+        <v>37864</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="7">
         <v>51</v>
       </c>
@@ -3688,7 +3738,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="7">
         <v>52</v>
       </c>
@@ -3699,7 +3749,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="7">
         <v>53</v>
       </c>
@@ -3710,7 +3760,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="7">
         <v>54</v>
       </c>
@@ -3721,7 +3771,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="7">
         <v>55</v>
       </c>
@@ -3732,7 +3782,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="7">
         <v>56</v>
       </c>
@@ -3743,7 +3793,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="7">
         <v>57</v>
       </c>
@@ -3754,7 +3804,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="7">
         <v>58</v>
       </c>
@@ -3765,7 +3815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="7">
         <v>59</v>
       </c>
@@ -3776,7 +3826,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="7">
         <v>60</v>
       </c>
@@ -3787,7 +3837,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="7">
         <v>61</v>
       </c>
@@ -3981,7 +4031,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="7">
         <v>78</v>
       </c>
@@ -3992,7 +4042,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="7">
         <v>79</v>
       </c>
@@ -4003,7 +4053,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="7">
         <v>80</v>
       </c>
@@ -4014,7 +4064,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="7">
         <v>81</v>
       </c>
@@ -4025,7 +4075,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="7">
         <v>82</v>
       </c>
@@ -4039,7 +4089,7 @@
         <v>37641</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="7">
         <v>83</v>
       </c>
@@ -4050,7 +4100,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="7">
         <v>84</v>
       </c>
@@ -4063,8 +4113,11 @@
       <c r="F87" s="6">
         <v>34253</v>
       </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H87" s="6" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="7">
         <v>85</v>
       </c>
@@ -4075,7 +4128,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="7">
         <v>86</v>
       </c>
@@ -4086,7 +4139,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="7">
         <v>87</v>
       </c>
@@ -4097,7 +4150,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="7">
         <v>88</v>
       </c>
@@ -4108,7 +4161,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="7">
         <v>89</v>
       </c>
@@ -4119,7 +4172,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="7">
         <v>90</v>
       </c>
@@ -4130,7 +4183,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="7">
         <v>91</v>
       </c>
@@ -4141,7 +4194,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="7">
         <v>92</v>
       </c>
@@ -4152,7 +4205,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="7">
         <v>93</v>
       </c>
@@ -4228,6 +4281,9 @@
       <c r="D102" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="H102" s="6" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="7">
@@ -4525,7 +4581,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="7">
         <v>126</v>
       </c>
@@ -4536,7 +4592,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="7">
         <v>127</v>
       </c>
@@ -4547,7 +4603,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="7">
         <v>128</v>
       </c>
@@ -4558,7 +4614,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="7">
         <v>129</v>
       </c>
@@ -4569,7 +4625,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="7">
         <v>130</v>
       </c>
@@ -4580,7 +4636,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="7">
         <v>131</v>
       </c>
@@ -4590,8 +4646,14 @@
       <c r="D134" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F134" s="6">
+        <v>37172</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="7">
         <v>132</v>
       </c>
@@ -4601,8 +4663,11 @@
       <c r="D135" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H135" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="7">
         <v>133</v>
       </c>
@@ -4613,7 +4678,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="7">
         <v>134</v>
       </c>
@@ -4624,7 +4689,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="7">
         <v>135</v>
       </c>
@@ -4635,7 +4700,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="7">
         <v>136</v>
       </c>
@@ -4646,7 +4711,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="7">
         <v>137</v>
       </c>
@@ -4657,7 +4722,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="7">
         <v>138</v>
       </c>
@@ -4668,7 +4733,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="7">
         <v>139</v>
       </c>
@@ -4679,7 +4744,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="7">
         <v>140</v>
       </c>
@@ -4690,7 +4755,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="7">
         <v>141</v>
       </c>
